--- a/artfynd/A 24163-2019.xlsx
+++ b/artfynd/A 24163-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112252573</v>
+        <v>112252574</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78699</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,11 +756,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2021-10-04</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ganska rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112252575</v>
+        <v>112252573</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>77636</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -871,7 +866,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På två granlågor, gyttrad på en.</t>
+          <t>Ganska rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,10 +897,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112252574</v>
+        <v>112252575</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>89820</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +913,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -978,6 +973,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2021-10-04</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På två granlågor, gyttrad på en.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 24163-2019.xlsx
+++ b/artfynd/A 24163-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112252574</v>
+        <v>112252575</v>
       </c>
       <c r="B2" t="n">
-        <v>78699</v>
+        <v>89834</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,6 +756,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2021-10-04</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På två granlågor, gyttrad på en.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112252573</v>
+        <v>112252574</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -862,11 +867,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2021-10-04</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ganska rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,10 +897,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112252575</v>
+        <v>112252573</v>
       </c>
       <c r="B4" t="n">
-        <v>89820</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -913,21 +913,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På två granlågor, gyttrad på en.</t>
+          <t>Ganska rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 24163-2019.xlsx
+++ b/artfynd/A 24163-2019.xlsx
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112252574</v>
+        <v>112252573</v>
       </c>
       <c r="B3" t="n">
-        <v>78713</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -867,6 +867,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2021-10-04</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ganska rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112252573</v>
+        <v>112252574</v>
       </c>
       <c r="B4" t="n">
-        <v>77650</v>
+        <v>78713</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -913,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -973,11 +978,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2021-10-04</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ganska rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
